--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_05/1.5_IE_03_Final.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_05/1.5_IE_03_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\Section_05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFAAD9F-B386-4D15-AEF6-58E0D3D41B27}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA439591-207C-4501-A059-4F23556AEF55}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -453,12 +453,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -479,6 +473,70 @@
     <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -493,64 +551,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="142">
@@ -1052,189 +1052,189 @@
     <col min="4" max="4" width="1.375" customWidth="1"/>
     <col min="6" max="6" width="2.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="2.625" customWidth="1"/>
-    <col min="9" max="9" width="20.25" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="2.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="2.625" customWidth="1"/>
     <col min="14" max="14" width="1.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="14"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
     </row>
     <row r="2" spans="1:15" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="14"/>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="6" t="s">
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="4" t="s">
+      <c r="J2" s="5"/>
+      <c r="K2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="16" t="s">
+      <c r="L2" s="13"/>
+      <c r="M2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
     </row>
     <row r="3" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="14"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="8" t="s">
+      <c r="J3" s="8"/>
+      <c r="K3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8" t="s">
+      <c r="L3" s="6"/>
+      <c r="M3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8" t="s">
+      <c r="N3" s="6"/>
+      <c r="O3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="14">
         <v>-2800</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="19">
+      <c r="D4" s="15"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="14">
         <v>-2800</v>
       </c>
-      <c r="N4" s="26"/>
-      <c r="O4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="16"/>
     </row>
     <row r="5" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="27">
+      <c r="C5" s="22"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="22">
         <v>800</v>
       </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="27">
+      <c r="H5" s="17"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="22">
         <v>800</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="22">
         <v>-700</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="27">
+      <c r="D6" s="15"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="22">
         <v>-700</v>
       </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="29"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="24"/>
     </row>
     <row r="7" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="31">
+      <c r="C7" s="26"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="26">
         <v>400</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="33">
+      <c r="H7" s="17"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="28">
         <v>400</v>
       </c>
     </row>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_05/1.5_IE_03_Final.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_05/1.5_IE_03_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\Section_05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA439591-207C-4501-A059-4F23556AEF55}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F034EF-8931-4E31-A384-632BC5AA3582}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1052,7 +1052,7 @@
     <col min="4" max="4" width="1.375" customWidth="1"/>
     <col min="6" max="6" width="2.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="2.625" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="9" max="9" width="14.625" customWidth="1"/>
     <col min="10" max="10" width="2.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="2.625" customWidth="1"/>
     <col min="14" max="14" width="1.375" customWidth="1"/>
